--- a/MyFrameWork/testData/BrandAndQuantity.xlsx
+++ b/MyFrameWork/testData/BrandAndQuantity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autoProgram\myFramework\MyFrameWork\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897DDE0-DCA4-46F9-BE9A-EA8293F64B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B74F8-DC81-4D37-8702-039BF4A96601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +384,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -392,7 +392,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -400,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
